--- a/data/case1/18/Qlm2_13.xlsx
+++ b/data/case1/18/Qlm2_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.074532989887281076</v>
+        <v>-0.082760001704322406</v>
       </c>
       <c r="B1" s="0">
-        <v>0.074499238079184238</v>
+        <v>0.082730663809684302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.052399317950118984</v>
+        <v>-0.082322435693384932</v>
       </c>
       <c r="B2" s="0">
-        <v>0.052317039081163585</v>
+        <v>0.082213105299941525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0026165818216785652</v>
+        <v>-0.032513237081522206</v>
       </c>
       <c r="B3" s="0">
-        <v>0.002587041186886907</v>
+        <v>0.032338066519615793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0054129587070192997</v>
+        <v>-0.024338066570246397</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.006064558763364758</v>
+        <v>0.024002314154410342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.027465356671775965</v>
+        <v>-0.021002314177674286</v>
       </c>
       <c r="B5" s="0">
-        <v>0.025699428757119058</v>
+        <v>0.019868005619372298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0082528473880145725</v>
+        <v>-0.010529629708548427</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0078079388758158785</v>
+        <v>0.01038779982485849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.027469073156782375</v>
+        <v>-0.0003877998902628299</v>
       </c>
       <c r="B7" s="0">
-        <v>0.027406521656081484</v>
+        <v>0.00036527278122555629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.017406521798100538</v>
+        <v>0.0096347271533407941</v>
       </c>
       <c r="B8" s="0">
-        <v>0.017322422376279345</v>
+        <v>-0.0096558979544965062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.015322422424820292</v>
+        <v>0.011655897935280102</v>
       </c>
       <c r="B9" s="0">
-        <v>0.01526190306869335</v>
+        <v>-0.01167004538877503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.01326190312130926</v>
+        <v>0.013670045370666628</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013261822182931482</v>
+        <v>-0.013669914264392347</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.010261822248074814</v>
+        <v>0.016669914240668326</v>
       </c>
       <c r="B11" s="0">
-        <v>0.010258948334170626</v>
+        <v>-0.016671390736034297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0067589484062104965</v>
+        <v>0.020171390709893711</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0067376220579729029</v>
+        <v>-0.020202671506652337</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0032376221325094434</v>
+        <v>0.02370267148355687</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0032339579306537303</v>
+        <v>-0.02373231747201654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0047660419391908349</v>
+        <v>0.031732317424590484</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0047663432776774428</v>
+        <v>-0.031781632663577142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0057663432337982101</v>
+        <v>-0.0080495520191368186</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0057694273034520904</v>
+        <v>0.0080322750792056752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0017951290078039861</v>
+        <v>-0.0060322750914663104</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0017842989517347085</v>
+        <v>0.0060032339473288232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0002157009924230735</v>
+        <v>-0.00400323396035418</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.00021581433795869742</v>
+        <v>0.003999999975430768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016099920203910045</v>
+        <v>-0.015530728968141005</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016089831020966727</v>
+        <v>0.01551687417378389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012089831070801083</v>
+        <v>-0.012091222729370354</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015202336269404</v>
+        <v>0.012016564180236333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080152023906503445</v>
+        <v>-0.0080165642052616448</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080053821945025305</v>
+        <v>0.0080056330628544004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040053822495718094</v>
+        <v>-0.0040056330881599322</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999444102485</v>
+        <v>0.0039999999744972925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04570045731594341</v>
+        <v>-0.04569986824517791</v>
       </c>
       <c r="B22" s="0">
-        <v>0.04549119235174004</v>
+        <v>0.045490247288867636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040491192424593869</v>
+        <v>-0.04049024732327311</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097209293526781</v>
+        <v>0.040097254693398199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097209559120088</v>
+        <v>-0.020097254816725751</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999730006657</v>
+        <v>0.019999999874927177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.015446581407985605</v>
+        <v>-0.0073383759306508978</v>
       </c>
       <c r="B25" s="0">
-        <v>0.015402616448133344</v>
+        <v>0.0072838096848144573</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.012902616493672525</v>
+        <v>-0.0047838097076269293</v>
       </c>
       <c r="B26" s="0">
-        <v>0.012847675723454799</v>
+        <v>0.0047162721699329779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.010347675769862175</v>
+        <v>-0.0022162721929213092</v>
       </c>
       <c r="B27" s="0">
-        <v>0.010031644933969019</v>
+        <v>0.001832405420270522</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0080316449779473942</v>
+        <v>0.00016759455883974539</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0078343569992611606</v>
+        <v>-0.0004134300882414621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.00083435710661383666</v>
+        <v>0.0074134300388353225</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00078802017600221319</v>
+        <v>-0.0074771771700428147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.059211979065919351</v>
+        <v>0.067477176820634366</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.059505089889631435</v>
+        <v>-0.067872522298863203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.066505089798337025</v>
+        <v>-0.014021931857062242</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.066615771216078201</v>
+        <v>0.014001216553438667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040007293102117814</v>
+        <v>-0.004001216612692815</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999500910377</v>
+        <v>0.0039999999746438419</v>
       </c>
     </row>
   </sheetData>
